--- a/Аспекты тестов/Набор тестов для функции findBodyOfDefinition.xlsx
+++ b/Аспекты тестов/Набор тестов для функции findBodyOfDefinition.xlsx
@@ -5,23 +5,22 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
     <sheet name="Хороший набор тестов" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Наименование</t>
   </si>
@@ -72,21 +71,6 @@
   </si>
   <si>
     <t>Искомая функция закомментирована</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Полностью, частично, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>не закоментирована</t>
-    </r>
   </si>
   <si>
     <t>Пустые строки(строки из белых разделителей) в функции</t>
@@ -178,212 +162,37 @@
 "}"</t>
   </si>
   <si>
-    <t>имя искомой функции</t>
-  </si>
-  <si>
-    <t>"someFunction"</t>
-  </si>
-  <si>
     <t>Искомая функция отсутствует</t>
-  </si>
-  <si>
-    <t>"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Искомая функция в тексте</t>
   </si>
   <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-"    int c = arg1 + arg2;"
-"    return c;"
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Несколько, похожих на искому функцию, функций в тексте</t>
-  </si>
-  <si>
-    <t>"int someFunctionsomeFunctionOne(int arg1, double arg2)"
-"{"
-"return 0;"
-"}"
-"int someFunction(int arg1, double arg2)"
-"{"
-"return 0;"
-"}"
-"int someFunction1(int arg1, double arg2)"
-"{"
-"return 0;"
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Искомая функция полностью закомментирована</t>
   </si>
   <si>
-    <t>"// int someFunction(int arg1, double arg2)"
-"// {"
-"//    int c = arg1 + arg2;"
-"// Комментарий"
-"//    return c;"
-"// }"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Искомая функция частично закомментирована</t>
-  </si>
-  <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-"//    int c = arg1 + arg2;"
-"// Комментарий"
-"//    return c;"
-"//}"
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Тело функции состоит из пустых строк</t>
   </si>
   <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-""
-""
-""
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Тело функции состоит из непустых строк</t>
-  </si>
-  <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-"    int c = 0;"
-"    doSmth(c);"
-"    return c;"
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Пустые строки в теле функции расположены в начале, середине и в конце. Непустые в середине тела функции.</t>
   </si>
   <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-""
-"//  doSmth(c);"
-"    int c = 0;"
-""
-"//  doSmth(c);"
-""
-"// просто комментарий"
-""
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Непустые строки в теле функции расположены в начале, середине и в конце. Пустые строки в середине тела функции.</t>
-  </si>
-  <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-"    int c = 0;"
-"//  doSmth(c);"
-""
-"// просто комментарий"
-""
-"    c = 1 + 3;"
-"// еще комментарий"
-"    return c;"
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
   </si>
   <si>
     <t>Наличие операторов в теле искомой функции</t>
   </si>
   <si>
-    <t>"int someFunction(int arg1, double arg2)"
-"{"
-"    for(int i = 0; i &lt; 10; i++)"
-"    {"
-"    }"
-"    if (arg1 &gt; i)"
-"    {"
-"        return 1;"
-"    }"
-"    else"
-"    {"
-"        return arg1;"
-"    }"
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"</t>
-  </si>
-  <si>
     <t>Наличие вложенных операторов в теле искомой функции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"int someFunction(int arg1, double arg2)"
-"{"
-"    for(int i = 0; i &lt; 10; i++)"
-"    {"
-"        if (arg1 &gt; i)"
-"        {"
-"            while(i &lt; arg1)"
-"            {"
-"                i++;"
-"            }"
-"         }"
-"    }"
-"}"
-"int main()"
-"{"
-"return 0;"
-"}"
-, "someFunction"
-</t>
   </si>
   <si>
     <t>// Найти тело определения искомой функции.</t>
@@ -457,6 +266,193 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> funcBody);</t>
+    </r>
+  </si>
+  <si>
+    <t>индекс строки с заголовком функции</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = arg1 + arg2;"
+"    return c;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"return 0;"
+"}"
+, -1</t>
+  </si>
+  <si>
+    <t>"int someFunctionsomeFunctionOne(int arg1, double arg2)"
+"{"
+"return 0;"
+"}"
+"int someFunction(int arg1, double arg2)"
+"{"
+"return 0;"
+"}"
+"int someFunction1(int arg1, double arg2)"
+"{"
+"return 0;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 4</t>
+  </si>
+  <si>
+    <t>"// int someFunction(int arg1, double arg2)"
+"// {"
+"//    int c = arg1 + arg2;"
+"// Комментарий"
+"//    return c;"
+"// }"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"//    int c = arg1 + arg2;"
+"// Комментарий"
+"//    return c;"
+"//}"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+""
+""
+""
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = 0;"
+"    doSmth(c);"
+"    return c;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+""
+"//  doSmth(c);"
+"    int c = 0;"
+""
+"//  doSmth(c);"
+""
+"// просто комментарий"
+""
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    int c = 0;"
+"//  doSmth(c);"
+""
+"// просто комментарий"
+""
+"    c = 1 + 3;"
+"// еще комментарий"
+"    return c;"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0</t>
+  </si>
+  <si>
+    <t>"int someFunction(int arg1, double arg2)"
+"{"
+"    for(int i = 0; i &lt; 10; i++)"
+"    {"
+"    }"
+"    if (arg1 &gt; i)"
+"    {"
+"        return 1;"
+"    }"
+"    else"
+"    {"
+"        return arg1;"
+"    }"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"int someFunction(int arg1, double arg2)"
+"{"
+"    for(int i = 0; i &lt; 10; i++)"
+"    {"
+"        if (arg1 &gt; i)"
+"        {"
+"            while(i &lt; arg1)"
+"            {"
+"                i++;"
+"            }"
+"         }"
+"    }"
+"}"
+"int main()"
+"{"
+"return 0;"
+"}"
+, 0
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Полностью, частично, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>не закомментирована</t>
     </r>
   </si>
 </sst>
@@ -1108,8 +1104,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1380,7 +1376,7 @@
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="5"/>
@@ -1640,7 +1636,7 @@
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2685,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -2944,10 +2940,10 @@
     </row>
     <row r="8" spans="1:256" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A8" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3206,10 +3202,10 @@
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -3468,10 +3464,10 @@
     </row>
     <row r="10" spans="1:256" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -3730,10 +3726,10 @@
     </row>
     <row r="11" spans="1:256" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -4251,10 +4247,10 @@
     </row>
     <row r="13" spans="1:256" ht="234" x14ac:dyDescent="0.45">
       <c r="A13" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -4513,10 +4509,10 @@
     </row>
     <row r="14" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A14" s="29" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>22</v>
+      <c r="B14" s="30">
+        <v>0</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -6581,8 +6577,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6853,7 +6849,7 @@
     </row>
     <row r="2" spans="1:256" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -7113,7 +7109,7 @@
     </row>
     <row r="3" spans="1:256" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7893,10 +7889,10 @@
     </row>
     <row r="6" spans="1:256" ht="125.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -8155,10 +8151,10 @@
     </row>
     <row r="7" spans="1:256" ht="241.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8417,10 +8413,10 @@
     </row>
     <row r="8" spans="1:256" ht="363.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8679,63 +8675,63 @@
     </row>
     <row r="9" spans="1:256" ht="257.39999999999998" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="292.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:256" ht="178.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:256" ht="318" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:256" ht="321" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+    <row r="11" spans="1:256" ht="262.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="12" spans="1:256" ht="271.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="376.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="390" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>44</v>
